--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313837.6349494808</v>
+        <v>-314470.846805612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5808968.500444937</v>
+        <v>5808968.500444938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058536</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>38.45009570676085</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75585940079473</v>
+        <v>16.75585940079483</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.779624543948341</v>
+        <v>2.779624543948279</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.71680785700312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>42.49402539587345</v>
+        <v>20.67287816789151</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.7929620084729</v>
+        <v>11.79296200847296</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2127339454083</v>
+        <v>15.21273394540836</v>
       </c>
       <c r="W12" t="n">
-        <v>41.26839660701765</v>
+        <v>41.26839660701771</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.24158724936752</v>
+        <v>10.24158724936759</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="V13" t="n">
-        <v>19.67282821445596</v>
+        <v>19.67282821445602</v>
       </c>
       <c r="W13" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="G14" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75585940079478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.779624543948335</v>
+        <v>2.779624543948341</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>42.49402539587345</v>
+        <v>37.42873756868509</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.67287816789056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.24158724936753</v>
+        <v>10.24158724936752</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="V16" t="n">
         <v>19.67282821445596</v>
       </c>
       <c r="W16" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.58244823586926</v>
+        <v>1.359791546905767</v>
       </c>
       <c r="F17" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="G17" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="H17" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.02314534638677</v>
+        <v>42.49402539587315</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.19077655206644</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>33.58244823586926</v>
       </c>
       <c r="F20" t="n">
-        <v>10.27136870691025</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="G20" t="n">
-        <v>42.49402539587345</v>
+        <v>15.13689487744706</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.438999912589679</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.40126617658959</v>
+        <v>77.40126617658943</v>
       </c>
       <c r="H23" t="n">
         <v>9.438999912589679</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133373</v>
+        <v>137.2320734133372</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166828</v>
+        <v>113.3503304166827</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9169926777313</v>
+        <v>100.9169926777312</v>
       </c>
       <c r="E26" t="n">
-        <v>134.6237450971402</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3440826755175</v>
+        <v>166.3440826755174</v>
       </c>
       <c r="G26" t="n">
         <v>182.013672677494</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4802967738606</v>
+        <v>110.4802967738605</v>
       </c>
       <c r="I26" t="n">
-        <v>5.336879406292724</v>
+        <v>5.336879406292638</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250099</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465594</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612709</v>
+        <v>101.0412968612708</v>
       </c>
       <c r="X26" t="n">
-        <v>122.9275473302101</v>
+        <v>122.92754733021</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539539</v>
+        <v>145.4304004539538</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139707655</v>
       </c>
       <c r="V27" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906165</v>
       </c>
       <c r="W27" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251551</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224849</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953824</v>
       </c>
       <c r="W28" t="n">
-        <v>53.45554012483933</v>
+        <v>53.45554012483925</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>100.9169926777313</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6237450971402</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F29" t="n">
         <v>166.3440826755175</v>
@@ -2810,7 +2810,7 @@
         <v>110.4802967738606</v>
       </c>
       <c r="I29" t="n">
-        <v>5.336879406292685</v>
+        <v>5.336879406292695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250104</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465599</v>
       </c>
       <c r="W29" t="n">
         <v>101.0412968612709</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139708224</v>
       </c>
       <c r="V30" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906222</v>
       </c>
       <c r="W30" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251557</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224855</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953881</v>
       </c>
       <c r="W31" t="n">
-        <v>53.45554012483933</v>
+        <v>53.4555401248393</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.2320734133374</v>
+        <v>137.2320734133372</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3503304166829</v>
+        <v>113.3503304166827</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9169926777313</v>
+        <v>100.9169926777312</v>
       </c>
       <c r="E32" t="n">
-        <v>134.6237450971402</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F32" t="n">
-        <v>166.3440826755175</v>
+        <v>166.3440826755174</v>
       </c>
       <c r="G32" t="n">
-        <v>182.0136726774941</v>
+        <v>182.0136726774939</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4802967738606</v>
+        <v>110.4802967738605</v>
       </c>
       <c r="I32" t="n">
-        <v>5.33687940629278</v>
+        <v>5.336879406292638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250112</v>
+        <v>13.29782786250098</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465608</v>
+        <v>84.02461664465594</v>
       </c>
       <c r="W32" t="n">
-        <v>101.041296861271</v>
+        <v>101.0412968612708</v>
       </c>
       <c r="X32" t="n">
-        <v>122.9275473302102</v>
+        <v>122.92754733021</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.430400453954</v>
+        <v>145.4304004539538</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139709076</v>
+        <v>0.3739820139707655</v>
       </c>
       <c r="V33" t="n">
-        <v>3.793753950906307</v>
+        <v>3.793753950906165</v>
       </c>
       <c r="W33" t="n">
-        <v>29.84941661251565</v>
+        <v>29.84941661251551</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224863</v>
+        <v>51.80214033224849</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953966</v>
+        <v>8.253848219953824</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483939</v>
+        <v>53.45554012483925</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523014</v>
+        <v>87.61916481523022</v>
       </c>
       <c r="E35" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F35" t="n">
-        <v>153.0462548130163</v>
+        <v>153.0462548130164</v>
       </c>
       <c r="G35" t="n">
         <v>168.7158448149929</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135942</v>
+        <v>97.18246891135951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72678878215487</v>
+        <v>70.72678878215496</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876974</v>
+        <v>87.74346899876983</v>
       </c>
       <c r="X35" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.1325725914527</v>
+        <v>132.1325725914528</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001445</v>
+        <v>16.55158875001453</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974743</v>
+        <v>38.50431246974751</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233818</v>
+        <v>40.15771226233826</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123.9342455508363</v>
+        <v>123.9342455508362</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0525025541818</v>
+        <v>100.0525025541817</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523019</v>
       </c>
       <c r="E38" t="n">
         <v>121.3259172346391</v>
@@ -3518,7 +3518,7 @@
         <v>168.7158448149929</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135948</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215496</v>
+        <v>70.72678878215493</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74346899876983</v>
+        <v>87.7434689987698</v>
       </c>
       <c r="X38" t="n">
-        <v>109.6297194677091</v>
+        <v>109.629719467709</v>
       </c>
       <c r="Y38" t="n">
         <v>132.1325725914528</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55158875001453</v>
+        <v>16.5515887500145</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974751</v>
+        <v>38.50431246974748</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233824</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>109.629719467709</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.1325725914528</v>
+        <v>132.1325725914533</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
       <c r="C11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
       <c r="D11" t="n">
-        <v>63.24789051315288</v>
+        <v>106.1711484887808</v>
       </c>
       <c r="E11" t="n">
-        <v>63.24789051315288</v>
+        <v>63.24789051315138</v>
       </c>
       <c r="F11" t="n">
-        <v>63.24789051315288</v>
+        <v>20.32463253752194</v>
       </c>
       <c r="G11" t="n">
-        <v>63.24789051315288</v>
+        <v>20.32463253752194</v>
       </c>
       <c r="H11" t="n">
-        <v>20.32463253752313</v>
+        <v>20.32463253752194</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J11" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358427</v>
       </c>
       <c r="K11" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358427</v>
       </c>
       <c r="L11" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358427</v>
       </c>
       <c r="M11" t="n">
-        <v>45.46860717358459</v>
+        <v>87.5376923154987</v>
       </c>
       <c r="N11" t="n">
-        <v>87.5376923154993</v>
+        <v>129.6067774574131</v>
       </c>
       <c r="O11" t="n">
-        <v>127.9070164415791</v>
+        <v>129.6067774574131</v>
       </c>
       <c r="P11" t="n">
-        <v>127.9070164415791</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S11" t="n">
-        <v>167.16840002395</v>
+        <v>167.1684000239489</v>
       </c>
       <c r="T11" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0096290006624</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="V11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
       <c r="W11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
       <c r="X11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.0863710250325</v>
+        <v>149.0944064644103</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="N12" t="n">
-        <v>30.29416674924896</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="O12" t="n">
-        <v>30.29416674924896</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="P12" t="n">
-        <v>30.29416674924896</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.36325189116367</v>
+        <v>30.29416674924941</v>
       </c>
       <c r="R12" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116383</v>
       </c>
       <c r="S12" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116383</v>
       </c>
       <c r="T12" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116383</v>
       </c>
       <c r="U12" t="n">
-        <v>60.45116905432235</v>
+        <v>60.45116905432245</v>
       </c>
       <c r="V12" t="n">
-        <v>45.0847711296675</v>
+        <v>45.08477112966754</v>
       </c>
       <c r="W12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J13" t="n">
-        <v>33.72475469149423</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K13" t="n">
-        <v>75.79383983340894</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L13" t="n">
-        <v>75.79383983340894</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M13" t="n">
-        <v>117.8629249753237</v>
+        <v>35.3244489756894</v>
       </c>
       <c r="N13" t="n">
-        <v>117.8629249753237</v>
+        <v>77.39353411760382</v>
       </c>
       <c r="O13" t="n">
-        <v>117.8629249753237</v>
+        <v>119.4626192595182</v>
       </c>
       <c r="P13" t="n">
-        <v>117.8629249753237</v>
+        <v>119.4626192595182</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.8629249753237</v>
+        <v>119.4626192595182</v>
       </c>
       <c r="R13" t="n">
-        <v>117.8629249753237</v>
+        <v>119.4626192595182</v>
       </c>
       <c r="S13" t="n">
-        <v>107.5178873496999</v>
+        <v>109.1175816338944</v>
       </c>
       <c r="T13" t="n">
-        <v>109.117581633895</v>
+        <v>109.1175816338944</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826525</v>
+        <v>66.19432365826498</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729963</v>
+        <v>46.3227800072993</v>
       </c>
       <c r="W13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.1711484887827</v>
+        <v>132.1692959585582</v>
       </c>
       <c r="C14" t="n">
-        <v>63.24789051315292</v>
+        <v>132.1692959585582</v>
       </c>
       <c r="D14" t="n">
-        <v>63.24789051315292</v>
+        <v>89.24603798292875</v>
       </c>
       <c r="E14" t="n">
-        <v>63.24789051315292</v>
+        <v>89.24603798292875</v>
       </c>
       <c r="F14" t="n">
-        <v>63.24789051315292</v>
+        <v>46.3227800072993</v>
       </c>
       <c r="G14" t="n">
-        <v>20.32463253752317</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H14" t="n">
-        <v>20.32463253752317</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J14" t="n">
-        <v>45.46860717358459</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K14" t="n">
-        <v>45.46860717358459</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L14" t="n">
-        <v>56.73261717120559</v>
+        <v>33.42799653016142</v>
       </c>
       <c r="M14" t="n">
-        <v>98.8017023131203</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="N14" t="n">
-        <v>140.870787455035</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="O14" t="n">
-        <v>169.9761015834938</v>
+        <v>127.9070164415782</v>
       </c>
       <c r="P14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="R14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S14" t="n">
-        <v>167.16840002395</v>
+        <v>167.1684000239488</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="U14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="V14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="W14" t="n">
-        <v>127.052843607864</v>
+        <v>132.1692959585582</v>
       </c>
       <c r="X14" t="n">
-        <v>127.052843607864</v>
+        <v>132.1692959585582</v>
       </c>
       <c r="Y14" t="n">
-        <v>106.1711484887827</v>
+        <v>132.1692959585582</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K15" t="n">
-        <v>3.399522031669876</v>
+        <v>30.29416674924924</v>
       </c>
       <c r="L15" t="n">
-        <v>30.29416674924896</v>
+        <v>30.29416674924924</v>
       </c>
       <c r="M15" t="n">
-        <v>30.29416674924896</v>
+        <v>30.29416674924924</v>
       </c>
       <c r="N15" t="n">
-        <v>30.29416674924896</v>
+        <v>30.29416674924924</v>
       </c>
       <c r="O15" t="n">
-        <v>30.29416674924896</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="P15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="R15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="S15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="T15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="U15" t="n">
-        <v>60.45116905432235</v>
+        <v>60.45116905432234</v>
       </c>
       <c r="V15" t="n">
-        <v>45.0847711296675</v>
+        <v>45.08477112966748</v>
       </c>
       <c r="W15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="C16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="D16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="E16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="F16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="H16" t="n">
-        <v>45.46860717358459</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="I16" t="n">
-        <v>87.5376923154993</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="J16" t="n">
-        <v>87.5376923154993</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="K16" t="n">
-        <v>87.5376923154993</v>
+        <v>62.1249693699116</v>
       </c>
       <c r="L16" t="n">
-        <v>87.5376923154993</v>
+        <v>64.66410306702312</v>
       </c>
       <c r="M16" t="n">
-        <v>87.5376923154993</v>
+        <v>106.7331882089375</v>
       </c>
       <c r="N16" t="n">
-        <v>119.4626192595188</v>
+        <v>106.7331882089375</v>
       </c>
       <c r="O16" t="n">
-        <v>119.4626192595188</v>
+        <v>106.7331882089375</v>
       </c>
       <c r="P16" t="n">
-        <v>119.4626192595188</v>
+        <v>148.802273350852</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.4626192595188</v>
+        <v>148.802273350852</v>
       </c>
       <c r="R16" t="n">
-        <v>119.4626192595188</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S16" t="n">
-        <v>109.117581633895</v>
+        <v>159.6310639578688</v>
       </c>
       <c r="T16" t="n">
-        <v>109.117581633895</v>
+        <v>159.6310639578688</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826525</v>
+        <v>116.7078059822394</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729963</v>
+        <v>96.83626233127377</v>
       </c>
       <c r="W16" t="n">
-        <v>3.399522031669876</v>
+        <v>53.91300435564433</v>
       </c>
       <c r="X16" t="n">
-        <v>3.399522031669876</v>
+        <v>53.91300435564433</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.399522031669876</v>
+        <v>62.1249693699116</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.578985071992</v>
+        <v>90.49650365628094</v>
       </c>
       <c r="C17" t="n">
-        <v>132.578985071992</v>
+        <v>90.49650365628094</v>
       </c>
       <c r="D17" t="n">
-        <v>132.7020462136962</v>
+        <v>90.61956479798511</v>
       </c>
       <c r="E17" t="n">
-        <v>98.78038132897979</v>
+        <v>89.24603798292875</v>
       </c>
       <c r="F17" t="n">
-        <v>55.85712335334995</v>
+        <v>46.3227800072993</v>
       </c>
       <c r="G17" t="n">
-        <v>12.93386537772006</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399522031669876</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="J17" t="n">
-        <v>3.399522031669876</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="K17" t="n">
-        <v>3.399522031669876</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="L17" t="n">
-        <v>45.46860717358459</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="M17" t="n">
-        <v>45.46860717358459</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="N17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="O17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="P17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="R17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="S17" t="n">
-        <v>129.606777457414</v>
+        <v>127.9070164415782</v>
       </c>
       <c r="T17" t="n">
-        <v>153.1295881690451</v>
+        <v>127.9070164415782</v>
       </c>
       <c r="U17" t="n">
-        <v>153.1295881690451</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="V17" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="W17" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="X17" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.578985071992</v>
+        <v>127.0528436078632</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="N18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="O18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="P18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="R18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="S18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="T18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="U18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="V18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="W18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="N19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="O19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="P19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="R19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="S19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="T19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="U19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="V19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="W19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.49650365628182</v>
+        <v>104.9455199018639</v>
       </c>
       <c r="C20" t="n">
-        <v>90.49650365628182</v>
+        <v>104.9455199018639</v>
       </c>
       <c r="D20" t="n">
-        <v>90.61956479798599</v>
+        <v>105.0685810435681</v>
       </c>
       <c r="E20" t="n">
-        <v>56.69789991326958</v>
+        <v>71.14691615885164</v>
       </c>
       <c r="F20" t="n">
-        <v>46.32278000729963</v>
+        <v>28.22365818322219</v>
       </c>
       <c r="G20" t="n">
-        <v>3.399522031669876</v>
+        <v>12.93386537772003</v>
       </c>
       <c r="H20" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I20" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J20" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K20" t="n">
-        <v>45.46860717358459</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L20" t="n">
-        <v>45.46860717358459</v>
+        <v>43.76884615774933</v>
       </c>
       <c r="M20" t="n">
-        <v>45.46860717358459</v>
+        <v>85.83793129966375</v>
       </c>
       <c r="N20" t="n">
-        <v>45.46860717358459</v>
+        <v>127.9070164415782</v>
       </c>
       <c r="O20" t="n">
-        <v>45.46860717358459</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="P20" t="n">
-        <v>45.46860717358459</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.46860717358459</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="R20" t="n">
-        <v>45.46860717358459</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S20" t="n">
-        <v>87.5376923154993</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="T20" t="n">
-        <v>129.606777457414</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="U20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="V20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="W20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="X20" t="n">
-        <v>169.9761015834938</v>
+        <v>147.8687778774934</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.052843607864</v>
+        <v>104.9455199018639</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="N21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="O21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="P21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="R21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="S21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="T21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="U21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="V21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="W21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="C22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="D22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="E22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="F22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="G22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="H22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="I22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="J22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="K22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="L22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="M22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="N22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="O22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="P22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="R22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="S22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="T22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="U22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="V22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="W22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="X22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669852</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206.1039226723293</v>
+        <v>206.1039226723288</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6705554446405</v>
+        <v>193.6705554446401</v>
       </c>
       <c r="D23" t="n">
-        <v>193.7936165863446</v>
+        <v>193.7936165863442</v>
       </c>
       <c r="E23" t="n">
-        <v>159.8719517016282</v>
+        <v>159.8719517016277</v>
       </c>
       <c r="F23" t="n">
-        <v>93.90954178824774</v>
+        <v>93.90954178824722</v>
       </c>
       <c r="G23" t="n">
-        <v>15.72644464017735</v>
+        <v>15.72644464017734</v>
       </c>
       <c r="H23" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="J23" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="K23" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="L23" t="n">
-        <v>82.81935480895086</v>
+        <v>62.87679074743838</v>
       </c>
       <c r="M23" t="n">
-        <v>156.350557676711</v>
+        <v>139.5040442622619</v>
       </c>
       <c r="N23" t="n">
-        <v>156.350557676711</v>
+        <v>139.5040442622619</v>
       </c>
       <c r="O23" t="n">
-        <v>156.350557676711</v>
+        <v>139.5040442622619</v>
       </c>
       <c r="P23" t="n">
-        <v>156.350557676711</v>
+        <v>216.1312977770855</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.350557676711</v>
+        <v>292.758551291909</v>
       </c>
       <c r="R23" t="n">
-        <v>156.350557676711</v>
+        <v>292.758551291909</v>
       </c>
       <c r="S23" t="n">
-        <v>232.9778111915347</v>
+        <v>292.758551291909</v>
       </c>
       <c r="T23" t="n">
-        <v>309.6050647063583</v>
+        <v>292.758551291909</v>
       </c>
       <c r="U23" t="n">
-        <v>309.6050647063583</v>
+        <v>292.758551291909</v>
       </c>
       <c r="V23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.6050647063577</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.6050647063577</v>
       </c>
       <c r="X23" t="n">
-        <v>287.4977410003591</v>
+        <v>287.4977410003585</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.6602626239116</v>
+        <v>242.660262623911</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="C24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="D24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="E24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="F24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="G24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="H24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="I24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="J24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="K24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="L24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="M24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="N24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="O24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="P24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="R24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="S24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="T24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="U24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="V24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="W24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="X24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="C25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="D25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="E25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="F25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="G25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="H25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="I25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="J25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="K25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="L25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="M25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="N25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="O25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="P25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="R25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="S25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="T25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="U25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="V25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="W25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="X25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127155</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.4896670542543</v>
+        <v>850.4896670542538</v>
       </c>
       <c r="C26" t="n">
-        <v>735.9943838050797</v>
+        <v>735.9943838050793</v>
       </c>
       <c r="D26" t="n">
         <v>634.058027564947</v>
@@ -6212,49 +6212,49 @@
         <v>498.0744466587448</v>
       </c>
       <c r="F26" t="n">
-        <v>330.0501207238786</v>
+        <v>330.0501207238788</v>
       </c>
       <c r="G26" t="n">
-        <v>146.1979261001473</v>
+        <v>146.1979261001475</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261167</v>
+        <v>34.60166673261156</v>
       </c>
       <c r="I26" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J26" t="n">
-        <v>185.1069238584291</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K26" t="n">
-        <v>409.0717114822804</v>
+        <v>253.1756670773794</v>
       </c>
       <c r="L26" t="n">
-        <v>451.0015162828607</v>
+        <v>529.5920871728108</v>
       </c>
       <c r="M26" t="n">
-        <v>761.0190781113274</v>
+        <v>605.1230337064264</v>
       </c>
       <c r="N26" t="n">
-        <v>830.929758308036</v>
+        <v>909.520329197986</v>
       </c>
       <c r="O26" t="n">
-        <v>1094.521687731346</v>
+        <v>1040.658525062573</v>
       </c>
       <c r="P26" t="n">
-        <v>1309.701442644191</v>
+        <v>1255.838279975418</v>
       </c>
       <c r="Q26" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.23173579817</v>
       </c>
       <c r="R26" t="n">
-        <v>1437.878519026257</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="S26" t="n">
-        <v>1446.431480922305</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U26" t="n">
         <v>1447.111823320343</v>
@@ -6269,7 +6269,7 @@
         <v>1136.007317425255</v>
       </c>
       <c r="Y26" t="n">
-        <v>989.1079230273222</v>
+        <v>989.1079230273217</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K27" t="n">
-        <v>29.21087945352811</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="L27" t="n">
-        <v>29.21087945352811</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="M27" t="n">
-        <v>29.21087945352811</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="N27" t="n">
-        <v>29.21087945352811</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="O27" t="n">
-        <v>29.21087945352811</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="U27" t="n">
-        <v>63.1938800226411</v>
+        <v>63.19388002264089</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475599</v>
+        <v>59.36180532475588</v>
       </c>
       <c r="W27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J28" t="n">
-        <v>38.04582668815372</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K28" t="n">
-        <v>38.04582668815372</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L28" t="n">
-        <v>38.04582668815372</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M28" t="n">
-        <v>38.04582668815372</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="N28" t="n">
-        <v>143.8689892283178</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="O28" t="n">
-        <v>143.8689892283178</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="P28" t="n">
-        <v>143.8689892283178</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8689892283178</v>
+        <v>111.3903708011198</v>
       </c>
       <c r="R28" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="S28" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="U28" t="n">
-        <v>91.54359495331926</v>
+        <v>91.54359495331906</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912339</v>
+        <v>83.20637452912328</v>
       </c>
       <c r="W28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.4896670542546</v>
+        <v>850.4896670542535</v>
       </c>
       <c r="C29" t="n">
-        <v>735.9943838050801</v>
+        <v>735.9943838050789</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649476</v>
+        <v>634.0580275649463</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587454</v>
+        <v>498.0744466587441</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0501207238792</v>
+        <v>330.050120723878</v>
       </c>
       <c r="G29" t="n">
-        <v>146.1979261001484</v>
+        <v>146.1979261001466</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60166673261163</v>
+        <v>34.60166673261162</v>
       </c>
       <c r="I29" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J29" t="n">
-        <v>29.21087945352811</v>
+        <v>76.62806329324036</v>
       </c>
       <c r="K29" t="n">
-        <v>29.21087945352811</v>
+        <v>300.5928509170917</v>
       </c>
       <c r="L29" t="n">
-        <v>298.8560511273798</v>
+        <v>342.5226557176719</v>
       </c>
       <c r="M29" t="n">
-        <v>608.8736129558465</v>
+        <v>652.5402175461386</v>
       </c>
       <c r="N29" t="n">
-        <v>913.2709084474061</v>
+        <v>830.8258706214488</v>
       </c>
       <c r="O29" t="n">
-        <v>1176.862837870716</v>
+        <v>1094.417800044759</v>
       </c>
       <c r="P29" t="n">
-        <v>1392.042592783561</v>
+        <v>1309.597554957604</v>
       </c>
       <c r="Q29" t="n">
-        <v>1398.231735798171</v>
+        <v>1451.991010780356</v>
       </c>
       <c r="R29" t="n">
-        <v>1437.878519026257</v>
+        <v>1451.991010780356</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922305</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U29" t="n">
-        <v>1447.111823320344</v>
+        <v>1447.111823320343</v>
       </c>
       <c r="V29" t="n">
-        <v>1362.238473174227</v>
+        <v>1362.238473174226</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.176557152741</v>
+        <v>1260.17655715274</v>
       </c>
       <c r="X29" t="n">
-        <v>1136.007317425256</v>
+        <v>1136.007317425255</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.1079230273226</v>
+        <v>989.1079230273215</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C30" t="n">
-        <v>41.97171358294327</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D30" t="n">
-        <v>41.97171358294327</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="F30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="G30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="H30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="I30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="J30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="K30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="L30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="M30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="N30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="O30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="P30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="R30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="S30" t="n">
-        <v>41.97171358294327</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="U30" t="n">
-        <v>63.1938800226411</v>
+        <v>63.19388002264101</v>
       </c>
       <c r="V30" t="n">
-        <v>59.36180532475599</v>
+        <v>59.36180532475593</v>
       </c>
       <c r="W30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="N31" t="n">
-        <v>29.21087945352811</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="O31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="P31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="Q31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="R31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="S31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="U31" t="n">
-        <v>91.54359495331926</v>
+        <v>91.54359495331917</v>
       </c>
       <c r="V31" t="n">
-        <v>83.20637452912339</v>
+        <v>83.20637452912334</v>
       </c>
       <c r="W31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.4896670542545</v>
+        <v>850.4896670542535</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050799</v>
+        <v>735.994383805079</v>
       </c>
       <c r="D32" t="n">
-        <v>634.0580275649472</v>
+        <v>634.0580275649464</v>
       </c>
       <c r="E32" t="n">
-        <v>498.074446658745</v>
+        <v>498.0744466587444</v>
       </c>
       <c r="F32" t="n">
-        <v>330.0501207238788</v>
+        <v>330.0501207238783</v>
       </c>
       <c r="G32" t="n">
-        <v>146.1979261001477</v>
+        <v>146.197926100147</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261173</v>
+        <v>34.60166673261156</v>
       </c>
       <c r="I32" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J32" t="n">
-        <v>76.62806329324029</v>
+        <v>185.1069238584292</v>
       </c>
       <c r="K32" t="n">
-        <v>300.5928509170915</v>
+        <v>409.0717114822805</v>
       </c>
       <c r="L32" t="n">
-        <v>342.5226557176718</v>
+        <v>685.4881315777119</v>
       </c>
       <c r="M32" t="n">
-        <v>652.5402175461384</v>
+        <v>995.5056934061786</v>
       </c>
       <c r="N32" t="n">
-        <v>937.7226016950224</v>
+        <v>1065.416373602887</v>
       </c>
       <c r="O32" t="n">
-        <v>1201.314531118332</v>
+        <v>1329.008303026197</v>
       </c>
       <c r="P32" t="n">
-        <v>1416.494286031177</v>
+        <v>1329.008303026197</v>
       </c>
       <c r="Q32" t="n">
-        <v>1416.494286031177</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="R32" t="n">
-        <v>1437.878519026257</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="S32" t="n">
-        <v>1446.431480922305</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U32" t="n">
-        <v>1447.111823320344</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V32" t="n">
-        <v>1362.238473174227</v>
+        <v>1362.238473174225</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.176557152741</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.007317425256</v>
+        <v>1136.007317425255</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.1079230273226</v>
+        <v>989.1079230273214</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="F33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="G33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="H33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="I33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="J33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="K33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="L33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="M33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="N33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="O33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="P33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271283</v>
+        <v>63.57163963271237</v>
       </c>
       <c r="U33" t="n">
-        <v>63.19388002264121</v>
+        <v>63.19388002264089</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475605</v>
+        <v>59.36180532475588</v>
       </c>
       <c r="W33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L34" t="n">
-        <v>29.21087945352811</v>
+        <v>38.04582668815335</v>
       </c>
       <c r="M34" t="n">
-        <v>29.21087945352811</v>
+        <v>38.04582668815335</v>
       </c>
       <c r="N34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="O34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="P34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="R34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="S34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="T34" t="n">
-        <v>143.868989228318</v>
+        <v>143.8689892283175</v>
       </c>
       <c r="U34" t="n">
-        <v>91.54359495331937</v>
+        <v>91.54359495331906</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912345</v>
+        <v>83.20637452912328</v>
       </c>
       <c r="W34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071307</v>
+        <v>761.1064616071303</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140178</v>
+        <v>660.0433277140174</v>
       </c>
       <c r="D35" t="n">
-        <v>571.539120829947</v>
+        <v>571.5391208299466</v>
       </c>
       <c r="E35" t="n">
-        <v>448.9876892798066</v>
+        <v>448.9876892798061</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010022</v>
+        <v>294.395512701002</v>
       </c>
       <c r="G35" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H35" t="n">
         <v>25.81135742185823</v>
       </c>
       <c r="I35" t="n">
-        <v>25.81135742185823</v>
+        <v>33.69269639350449</v>
       </c>
       <c r="J35" t="n">
-        <v>194.8722514106354</v>
+        <v>202.7535903822815</v>
       </c>
       <c r="K35" t="n">
-        <v>194.8722514106354</v>
+        <v>439.8832275900088</v>
       </c>
       <c r="L35" t="n">
-        <v>236.8020562112156</v>
+        <v>590.1277944357065</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2176043067112</v>
+        <v>665.6587409693221</v>
       </c>
       <c r="N35" t="n">
-        <v>873.779749382147</v>
+        <v>983.2208860447578</v>
       </c>
       <c r="O35" t="n">
-        <v>1150.536528389333</v>
+        <v>983.2208860447578</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.213878494425</v>
+        <v>1211.565490541479</v>
       </c>
       <c r="Q35" t="n">
-        <v>1290.567871092911</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R35" t="n">
-        <v>1290.567871092911</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.567871092911</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V35" t="n">
         <v>1219.126670302856</v>
@@ -6980,7 +6980,7 @@
         <v>1019.759813266008</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241369</v>
+        <v>886.2925682241366</v>
       </c>
     </row>
     <row r="36">
@@ -7017,40 +7017,40 @@
         <v>25.81135742185823</v>
       </c>
       <c r="K36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="L36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="M36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="N36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="O36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="P36" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702434</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="W36" t="n">
         <v>25.81135742185823</v>
@@ -7081,55 +7081,55 @@
         <v>25.81135742185823</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="H37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="I37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="J37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="K37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="L37" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="M37" t="n">
-        <v>59.62448004925475</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="N37" t="n">
-        <v>59.62448004925475</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="O37" t="n">
-        <v>59.62448004925475</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="P37" t="n">
-        <v>59.62448004925475</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.62448004925475</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139175</v>
+        <v>66.37470314139183</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139175</v>
+        <v>66.37470314139183</v>
       </c>
       <c r="W37" t="n">
         <v>25.81135742185823</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.1064616071303</v>
+        <v>761.1064616071308</v>
       </c>
       <c r="C38" t="n">
-        <v>660.0433277140174</v>
+        <v>660.0433277140179</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5391208299466</v>
+        <v>571.5391208299469</v>
       </c>
       <c r="E38" t="n">
-        <v>448.9876892798061</v>
+        <v>448.9876892798064</v>
       </c>
       <c r="F38" t="n">
         <v>294.395512701002</v>
@@ -7169,43 +7169,43 @@
         <v>25.81135742185823</v>
       </c>
       <c r="I38" t="n">
-        <v>33.69269639350449</v>
+        <v>33.69269639350452</v>
       </c>
       <c r="J38" t="n">
-        <v>33.69269639350449</v>
+        <v>202.7535903822816</v>
       </c>
       <c r="K38" t="n">
-        <v>270.8223336012318</v>
+        <v>268.0806780328892</v>
       </c>
       <c r="L38" t="n">
-        <v>312.752138401812</v>
+        <v>557.6619477121966</v>
       </c>
       <c r="M38" t="n">
-        <v>632.1676864973076</v>
+        <v>633.1928942458122</v>
       </c>
       <c r="N38" t="n">
-        <v>949.7298315727433</v>
+        <v>950.7550393212479</v>
       </c>
       <c r="O38" t="n">
-        <v>1226.486610579929</v>
+        <v>983.2208860447574</v>
       </c>
       <c r="P38" t="n">
-        <v>1290.567871092912</v>
+        <v>1211.565490541478</v>
       </c>
       <c r="Q38" t="n">
-        <v>1290.567871092912</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R38" t="n">
-        <v>1290.567871092912</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.567871092912</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T38" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="U38" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="V38" t="n">
         <v>1219.126670302856</v>
@@ -7214,10 +7214,10 @@
         <v>1130.496903637432</v>
       </c>
       <c r="X38" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.2925682241366</v>
+        <v>886.2925682241371</v>
       </c>
     </row>
     <row r="39">
@@ -7245,49 +7245,49 @@
         <v>25.81135742185823</v>
       </c>
       <c r="H39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="N39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="O39" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="P39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="R39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="S39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="T39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="U39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="V39" t="n">
-        <v>42.53013393702443</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="W39" t="n">
         <v>25.81135742185823</v>
@@ -7330,43 +7330,43 @@
         <v>25.81135742185823</v>
       </c>
       <c r="J40" t="n">
-        <v>25.81135742185823</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="K40" t="n">
-        <v>25.81135742185823</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="L40" t="n">
-        <v>25.81135742185823</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="M40" t="n">
-        <v>25.81135742185823</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="N40" t="n">
-        <v>25.81135742185823</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="P40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679480603287</v>
+        <v>100.2744082142069</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139183</v>
+        <v>61.38116329527009</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139183</v>
+        <v>66.37470314139181</v>
       </c>
       <c r="W40" t="n">
         <v>25.81135742185823</v>
@@ -7421,22 +7421,22 @@
         <v>879.8191513760348</v>
       </c>
       <c r="N41" t="n">
-        <v>949.7298315727434</v>
+        <v>1182.46017641302</v>
       </c>
       <c r="O41" t="n">
-        <v>1032.216038862658</v>
+        <v>1211.565490541478</v>
       </c>
       <c r="P41" t="n">
-        <v>1260.560643359379</v>
+        <v>1211.565490541478</v>
       </c>
       <c r="Q41" t="n">
-        <v>1279.914635957866</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R41" t="n">
-        <v>1290.567871092911</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S41" t="n">
-        <v>1290.567871092911</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T41" t="n">
         <v>1290.567871092911</v>
@@ -7485,19 +7485,19 @@
         <v>25.81135742185823</v>
       </c>
       <c r="I42" t="n">
-        <v>42.53013393702437</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J42" t="n">
-        <v>42.53013393702437</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K42" t="n">
-        <v>42.53013393702437</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L42" t="n">
-        <v>42.53013393702437</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M42" t="n">
-        <v>42.53013393702437</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="N42" t="n">
         <v>42.53013393702437</v>
@@ -7561,40 +7561,40 @@
         <v>25.81135742185823</v>
       </c>
       <c r="H43" t="n">
-        <v>105.2679480603286</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="J43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="K43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="M43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="O43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="P43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="R43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="S43" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="T43" t="n">
         <v>105.2679480603286</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.1064616071308</v>
+        <v>761.1064616071302</v>
       </c>
       <c r="C44" t="n">
-        <v>660.043327714018</v>
+        <v>660.0433277140173</v>
       </c>
       <c r="D44" t="n">
-        <v>571.539120829947</v>
+        <v>571.5391208299465</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9876892798063</v>
+        <v>448.987689279806</v>
       </c>
       <c r="F44" t="n">
-        <v>294.3955127010018</v>
+        <v>294.3955127010015</v>
       </c>
       <c r="G44" t="n">
         <v>123.9754674333324</v>
@@ -7655,25 +7655,25 @@
         <v>729.4644972693164</v>
       </c>
       <c r="M44" t="n">
-        <v>1048.880045364812</v>
+        <v>729.4644972693164</v>
       </c>
       <c r="N44" t="n">
-        <v>1118.790725561521</v>
+        <v>1047.026642344752</v>
       </c>
       <c r="O44" t="n">
-        <v>1151.25657228503</v>
+        <v>1159.962187067487</v>
       </c>
       <c r="P44" t="n">
-        <v>1151.25657228503</v>
+        <v>1211.565490541478</v>
       </c>
       <c r="Q44" t="n">
-        <v>1290.567871092911</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R44" t="n">
-        <v>1290.567871092911</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S44" t="n">
-        <v>1290.567871092911</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T44" t="n">
         <v>1290.567871092911</v>
@@ -7691,7 +7691,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2925682241371</v>
+        <v>886.2925682241365</v>
       </c>
     </row>
     <row r="45">
@@ -7734,22 +7734,22 @@
         <v>25.81135742185823</v>
       </c>
       <c r="M45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="N45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="O45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="P45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="R45" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="S45" t="n">
         <v>42.53013393702437</v>
@@ -7786,52 +7786,52 @@
         <v>25.81135742185823</v>
       </c>
       <c r="D46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="E46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="F46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="G46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="H46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="I46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="J46" t="n">
-        <v>25.81135742185823</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="K46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="M46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="O46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="P46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="R46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="S46" t="n">
-        <v>105.2679480603286</v>
+        <v>79.19861399770035</v>
       </c>
       <c r="T46" t="n">
         <v>105.2679480603286</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>6.01686009773664</v>
       </c>
       <c r="K11" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>2.854941876293417</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M11" t="n">
-        <v>257.4849097117382</v>
+        <v>44.0483800340959</v>
       </c>
       <c r="N11" t="n">
-        <v>29.84179676130107</v>
+        <v>255.2779837312949</v>
       </c>
       <c r="O11" t="n">
-        <v>32.70011836464968</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P11" t="n">
-        <v>89.36965479855778</v>
+        <v>43.36835017571858</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>5.167320383784293</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>13.95596428625024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>125.3490926623392</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8851,22 +8851,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.016860097736881</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>14.23272975267846</v>
+        <v>258.6229212690061</v>
       </c>
       <c r="M14" t="n">
-        <v>32.04872274174446</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>73.81224773414226</v>
+        <v>29.84179676130078</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>191.6176530138391</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>45.08528049474356</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>5.167320383784102</v>
       </c>
       <c r="R14" t="n">
-        <v>42.58424007769262</v>
+        <v>13.9559642862501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>125.3490926623392</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9085,25 +9085,25 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.17287892865681</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,16 +9951,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>57.50138317674077</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>65.80815714504509</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10030,16 +10030,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>263.8048221584095</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
         <v>291.2847697033555</v>
@@ -10130,10 +10130,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
-        <v>42.58424007769262</v>
+        <v>2.536984291748098</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>135.6762311797751</v>
@@ -10200,13 +10200,13 @@
         <v>122.422560448506</v>
       </c>
       <c r="N30" t="n">
-        <v>74.9413084404533</v>
+        <v>47.61447741259719</v>
       </c>
       <c r="O30" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P30" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10270,19 +10270,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>8.92418912588434</v>
       </c>
       <c r="O31" t="n">
-        <v>24.03533975926445</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
         <v>210.0462273461148</v>
@@ -10367,10 +10367,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>103.7182555408563</v>
       </c>
       <c r="R32" t="n">
-        <v>24.1372196403137</v>
+        <v>2.536984291748041</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10422,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M33" t="n">
-        <v>122.422560448506</v>
+        <v>59.62394346069318</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>8.924189125884695</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>105.6509998050918</v>
@@ -10586,10 +10586,10 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>129.9003227523185</v>
       </c>
       <c r="M35" t="n">
         <v>291.2847697033555</v>
@@ -10598,16 +10598,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P35" t="n">
-        <v>105.7101085536754</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>69.16996059133484</v>
+        <v>25.48569118610393</v>
       </c>
       <c r="L37" t="n">
         <v>105.2836065989273</v>
@@ -10753,16 +10753,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>36.50829850053928</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>287.4798572620958</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.602993214577</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L39" t="n">
-        <v>123.4481575142158</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>68.092713102261</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,22 +10978,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11069,13 +11069,13 @@
         <v>287.4798572620957</v>
       </c>
       <c r="N41" t="n">
-        <v>283.4008070189657</v>
+        <v>268.328968596288</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>4.832412972882544</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>63.56138293727423</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>287.4798572620957</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>81.28252323154099</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.1689961711058</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>21.3927031663228</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11373,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>124.7693104111849</v>
       </c>
       <c r="D11" t="n">
-        <v>73.88587696547249</v>
+        <v>69.84194727636024</v>
       </c>
       <c r="E11" t="n">
-        <v>146.0427250916422</v>
+        <v>103.5486996957691</v>
       </c>
       <c r="F11" t="n">
-        <v>177.7630626700195</v>
+        <v>135.2690372741465</v>
       </c>
       <c r="G11" t="n">
         <v>193.4326526719961</v>
       </c>
       <c r="H11" t="n">
-        <v>79.40525137248918</v>
+        <v>121.8992767683627</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.71680785700318</v>
       </c>
       <c r="V11" t="n">
-        <v>52.94957124328462</v>
+        <v>74.77071847126663</v>
       </c>
       <c r="W11" t="n">
-        <v>112.4602768557729</v>
+        <v>112.460276855773</v>
       </c>
       <c r="X11" t="n">
         <v>134.3465273247122</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.8493804484559</v>
+        <v>156.849380448456</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.72709493087718</v>
+        <v>20.72709493087752</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.38049472346793</v>
+        <v>22.38049472346827</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>148.6510534078394</v>
       </c>
       <c r="C14" t="n">
-        <v>82.27528501531143</v>
+        <v>124.7693104111849</v>
       </c>
       <c r="D14" t="n">
-        <v>112.3359726722333</v>
+        <v>69.84194727636019</v>
       </c>
       <c r="E14" t="n">
         <v>146.0427250916422</v>
       </c>
       <c r="F14" t="n">
-        <v>177.7630626700195</v>
+        <v>135.2690372741464</v>
       </c>
       <c r="G14" t="n">
-        <v>150.9386272761226</v>
+        <v>150.938627276123</v>
       </c>
       <c r="H14" t="n">
         <v>121.8992767683626</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.75585940079473</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>95.44359663915807</v>
       </c>
       <c r="W14" t="n">
-        <v>69.9662514598995</v>
+        <v>75.03153928708787</v>
       </c>
       <c r="X14" t="n">
         <v>134.3465273247122</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.1765022805654</v>
+        <v>156.8493804484559</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087718</v>
+        <v>20.72709493087748</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346793</v>
+        <v>22.38049472346823</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.19077655206644</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>12.30903355541193</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>32.22265668896353</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80876041837314</v>
+        <v>22.80876041837342</v>
       </c>
       <c r="G17" t="n">
-        <v>38.47835042034967</v>
+        <v>38.47835042034995</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.438999912589679</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>21.88625046893926</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.365958246296259</v>
+        <v>1.895078196809834</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
         <v>12.30903355541193</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>55.03141710733632</v>
+        <v>22.80876041837344</v>
       </c>
       <c r="G20" t="n">
-        <v>38.47835042034967</v>
+        <v>65.83548093877606</v>
       </c>
       <c r="H20" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.89507819680955</v>
+        <v>1.895078196809848</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.571109639633505</v>
+        <v>3.571109639633676</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938435.5159480612</v>
+        <v>938435.5159480614</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938435.5159480614</v>
+        <v>938435.5159480611</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1003548.689258109</v>
+        <v>1003548.689258108</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1119393.484396348</v>
+        <v>1119393.484396347</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1119393.484396348</v>
+        <v>1119393.484396347</v>
       </c>
     </row>
     <row r="13">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529159.1971058758</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="C2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="D2" t="n">
         <v>529159.1971058757</v>
       </c>
       <c r="E2" t="n">
-        <v>462719.8403431122</v>
+        <v>462719.840343112</v>
       </c>
       <c r="F2" t="n">
-        <v>462719.8403431124</v>
+        <v>462719.8403431123</v>
       </c>
       <c r="G2" t="n">
         <v>523590.6204824913</v>
       </c>
       <c r="H2" t="n">
-        <v>523590.6204824912</v>
+        <v>523590.6204824911</v>
       </c>
       <c r="I2" t="n">
-        <v>530060.5731187324</v>
+        <v>530060.5731187328</v>
       </c>
       <c r="J2" t="n">
-        <v>530231.1293151219</v>
+        <v>530231.1293151217</v>
       </c>
       <c r="K2" t="n">
-        <v>530231.1293151218</v>
+        <v>530231.1293151217</v>
       </c>
       <c r="L2" t="n">
         <v>530231.1293151218</v>
@@ -26350,10 +26350,10 @@
         <v>530231.1293151212</v>
       </c>
       <c r="O2" t="n">
-        <v>530231.1293151214</v>
+        <v>530231.1293151212</v>
       </c>
       <c r="P2" t="n">
-        <v>530231.1293151214</v>
+        <v>530231.1293151211</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268189.4957533078</v>
+        <v>268189.4957533074</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>89968.22148461836</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.568375648816</v>
+        <v>9282.568375648852</v>
       </c>
       <c r="J3" t="n">
         <v>174799.9769962072</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89968.22148461831</v>
+        <v>89968.22148461841</v>
       </c>
       <c r="M3" t="n">
-        <v>10638.26229000097</v>
+        <v>10638.26229000078</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>99515.91208697848</v>
@@ -26427,7 +26427,7 @@
         <v>412276.999431043</v>
       </c>
       <c r="F4" t="n">
-        <v>412276.9994310431</v>
+        <v>412276.9994310429</v>
       </c>
       <c r="G4" t="n">
         <v>465631.4922360424</v>
@@ -26442,7 +26442,7 @@
         <v>482258.3294266119</v>
       </c>
       <c r="K4" t="n">
-        <v>482258.3294266119</v>
+        <v>482258.3294266118</v>
       </c>
       <c r="L4" t="n">
         <v>482258.3294266119</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390379</v>
+        <v>23575.06998390376</v>
       </c>
       <c r="F5" t="n">
-        <v>23575.06998390378</v>
+        <v>23575.06998390377</v>
       </c>
       <c r="G5" t="n">
-        <v>33029.49299889176</v>
+        <v>33029.49299889174</v>
       </c>
       <c r="H5" t="n">
-        <v>33029.49299889176</v>
+        <v>33029.49299889174</v>
       </c>
       <c r="I5" t="n">
-        <v>35151.8532383593</v>
+        <v>35151.85323835929</v>
       </c>
       <c r="J5" t="n">
-        <v>44151.68385367383</v>
+        <v>44151.68385367382</v>
       </c>
       <c r="K5" t="n">
-        <v>44151.68385367383</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="L5" t="n">
         <v>44151.68385367382</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7846.148631003998</v>
+        <v>-7850.615015209421</v>
       </c>
       <c r="C6" t="n">
-        <v>-7846.148631004115</v>
+        <v>-7850.615015209421</v>
       </c>
       <c r="D6" t="n">
-        <v>-7846.148631004115</v>
+        <v>-7850.615015209305</v>
       </c>
       <c r="E6" t="n">
-        <v>-241321.7248251423</v>
+        <v>-241603.0218625255</v>
       </c>
       <c r="F6" t="n">
-        <v>26867.77092816547</v>
+        <v>26586.47389078223</v>
       </c>
       <c r="G6" t="n">
-        <v>-65038.58623706126</v>
+        <v>-65066.25502386381</v>
       </c>
       <c r="H6" t="n">
-        <v>24929.635247557</v>
+        <v>24901.96646075434</v>
       </c>
       <c r="I6" t="n">
-        <v>13698.46351619661</v>
+        <v>13697.75286537862</v>
       </c>
       <c r="J6" t="n">
-        <v>-170978.860961371</v>
+        <v>-170978.8609613713</v>
       </c>
       <c r="K6" t="n">
-        <v>3821.116034836079</v>
+        <v>3821.116034836035</v>
       </c>
       <c r="L6" t="n">
-        <v>-86147.10544978223</v>
+        <v>-86147.10544978229</v>
       </c>
       <c r="M6" t="n">
-        <v>-3120.736947031342</v>
+        <v>-3120.736947031168</v>
       </c>
       <c r="N6" t="n">
-        <v>7517.52534296969</v>
+        <v>7517.525342969573</v>
       </c>
       <c r="O6" t="n">
-        <v>-91998.38674400875</v>
+        <v>-91998.38674400898</v>
       </c>
       <c r="P6" t="n">
-        <v>7517.525342969748</v>
+        <v>7517.525342969398</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K2" t="n">
         <v>236.855166964496</v>
       </c>
       <c r="L2" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="M2" t="n">
         <v>250.1529948269971</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>93.54304758964463</v>
+      </c>
+      <c r="F3" t="n">
         <v>93.54304758964493</v>
-      </c>
-      <c r="F3" t="n">
-        <v>93.54304758964463</v>
       </c>
       <c r="G3" t="n">
         <v>93.54304758964463</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="I4" t="n">
-        <v>77.40126617658959</v>
+        <v>77.40126617658943</v>
       </c>
       <c r="J4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="K4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="L4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="M4" t="n">
         <v>322.6419677732279</v>
@@ -26917,7 +26917,7 @@
         <v>225.4361869699939</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>112.4602768557729</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.394890108723</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4602768557729</v>
+        <v>112.460276855773</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29782786250121</v>
+        <v>13.29782786250098</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>124.3948901087231</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93.54304758964493</v>
+        <v>93.54304758964463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071614</v>
+        <v>34.90724078071628</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925118</v>
+        <v>287.7347269925116</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>225.4361869699939</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>112.4602768557729</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.394890108723</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,31 +28111,31 @@
         <v>225.4361869699939</v>
       </c>
       <c r="J11" t="n">
-        <v>188.9590216718573</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="K11" t="n">
-        <v>10.62810875858546</v>
+        <v>10.62810875858561</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>213.4365296776422</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>225.4361869699939</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>225.4361869699939</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>225.4361869699939</v>
-      </c>
-      <c r="P11" t="n">
-        <v>138.6577872703066</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>135.5174188020333</v>
-      </c>
-      <c r="R11" t="n">
-        <v>196.8079111785514</v>
       </c>
       <c r="S11" t="n">
         <v>225.4361869699939</v>
@@ -28184,37 +28184,37 @@
         <v>148.761012594616</v>
       </c>
       <c r="H12" t="n">
-        <v>125.893992481459</v>
+        <v>125.8939924814591</v>
       </c>
       <c r="I12" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J12" t="n">
-        <v>54.02537789568672</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K12" t="n">
-        <v>135.676231179775</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M12" t="n">
-        <v>122.4225604485059</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N12" t="n">
-        <v>135.072921263443</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O12" t="n">
-        <v>126.0954398958499</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P12" t="n">
-        <v>125.0272939704078</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q12" t="n">
-        <v>187.5880458463949</v>
+        <v>172.2603282460565</v>
       </c>
       <c r="R12" t="n">
-        <v>165.2365855749132</v>
+        <v>207.7306109707864</v>
       </c>
       <c r="S12" t="n">
         <v>191.8955649522593</v>
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>172.3076893534617</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,37 +28269,37 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J13" t="n">
-        <v>143.0084423346752</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K13" t="n">
-        <v>180.2921651476043</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L13" t="n">
-        <v>34.19696075465799</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M13" t="n">
-        <v>185.5414691957508</v>
+        <v>175.2948447534326</v>
       </c>
       <c r="N13" t="n">
-        <v>18.62520307538155</v>
+        <v>172.457108986466</v>
       </c>
       <c r="O13" t="n">
-        <v>39.42323441888094</v>
+        <v>187.568259619846</v>
       </c>
       <c r="P13" t="n">
-        <v>60.14232658241825</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q13" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R13" t="n">
-        <v>204.0484816844983</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S13" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4361869699939</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U13" t="n">
         <v>225.4361869699939</v>
@@ -28348,31 +28348,31 @@
         <v>225.4361869699939</v>
       </c>
       <c r="J14" t="n">
-        <v>225.4361869699939</v>
+        <v>79.38441504035346</v>
       </c>
       <c r="K14" t="n">
-        <v>10.62810875858561</v>
+        <v>10.62810875858546</v>
       </c>
       <c r="L14" t="n">
-        <v>225.4361869699939</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="N14" t="n">
-        <v>181.465735997153</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>68.23558263982943</v>
       </c>
       <c r="P14" t="n">
-        <v>19.50187917374374</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.02339340615995</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="R14" t="n">
-        <v>196.8079111785515</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="S14" t="n">
         <v>225.4361869699939</v>
@@ -28421,37 +28421,37 @@
         <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
-        <v>125.8939924814591</v>
+        <v>125.893992481459</v>
       </c>
       <c r="I15" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J15" t="n">
-        <v>135.7323687962717</v>
+        <v>135.7323687962716</v>
       </c>
       <c r="K15" t="n">
-        <v>135.6762311797751</v>
+        <v>162.8425389753097</v>
       </c>
       <c r="L15" t="n">
-        <v>152.5154004578738</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.422560448506</v>
+        <v>122.4225604485059</v>
       </c>
       <c r="N15" t="n">
-        <v>107.9066134679088</v>
+        <v>107.9066134679086</v>
       </c>
       <c r="O15" t="n">
-        <v>126.09543989585</v>
+        <v>168.589465291723</v>
       </c>
       <c r="P15" t="n">
-        <v>167.5213193662814</v>
+        <v>125.0272939704078</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.0940204505216</v>
+        <v>145.0940204505215</v>
       </c>
       <c r="R15" t="n">
-        <v>165.2365855749133</v>
+        <v>165.2365855749132</v>
       </c>
       <c r="S15" t="n">
         <v>191.8955649522593</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>220.1109460608415</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28503,34 +28503,34 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I16" t="n">
-        <v>207.7606743998439</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J16" t="n">
         <v>121.2121579575505</v>
       </c>
       <c r="K16" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039597</v>
       </c>
       <c r="L16" t="n">
-        <v>34.19696075465806</v>
+        <v>142.0453488658191</v>
       </c>
       <c r="M16" t="n">
-        <v>143.0474437998775</v>
+        <v>185.5414691957506</v>
       </c>
       <c r="N16" t="n">
-        <v>162.2104845441479</v>
+        <v>18.62520307538155</v>
       </c>
       <c r="O16" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888094</v>
       </c>
       <c r="P16" t="n">
-        <v>60.14232658241831</v>
+        <v>190.12060500579</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R16" t="n">
-        <v>204.0484816844984</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="S16" t="n">
         <v>225.4361869699939</v>
@@ -28551,7 +28551,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>225.4361869699939</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I17" t="n">
-        <v>242.1920463707887</v>
+        <v>282.9691414476367</v>
       </c>
       <c r="J17" t="n">
         <v>188.9590216718574</v>
@@ -28591,13 +28591,13 @@
         <v>220.6743361047004</v>
       </c>
       <c r="L17" t="n">
-        <v>270.785154242161</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M17" t="n">
-        <v>214.9908843158649</v>
+        <v>257.4849097117381</v>
       </c>
       <c r="N17" t="n">
-        <v>255.2779837312952</v>
+        <v>212.7839583354218</v>
       </c>
       <c r="O17" t="n">
         <v>217.3592102577956</v>
@@ -28612,16 +28612,16 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S17" t="n">
-        <v>270.7098369098157</v>
+        <v>270.7098369098155</v>
       </c>
       <c r="T17" t="n">
-        <v>246.36053964887</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1529948269971</v>
+        <v>292.6470202228703</v>
       </c>
       <c r="V17" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28825,19 +28825,19 @@
         <v>188.9590216718574</v>
       </c>
       <c r="K20" t="n">
-        <v>263.1683615005738</v>
+        <v>220.6743361047004</v>
       </c>
       <c r="L20" t="n">
-        <v>228.2911288462876</v>
+        <v>269.0682239231355</v>
       </c>
       <c r="M20" t="n">
-        <v>214.9908843158649</v>
+        <v>257.4849097117381</v>
       </c>
       <c r="N20" t="n">
-        <v>212.7839583354218</v>
+        <v>255.2779837312949</v>
       </c>
       <c r="O20" t="n">
-        <v>217.3592102577956</v>
+        <v>259.8532356536687</v>
       </c>
       <c r="P20" t="n">
         <v>228.0274420688645</v>
@@ -28849,13 +28849,13 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S20" t="n">
-        <v>270.7098369098157</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T20" t="n">
-        <v>265.0941501845101</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U20" t="n">
-        <v>290.9300899038453</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -29065,10 +29065,10 @@
         <v>220.6743361047004</v>
       </c>
       <c r="L23" t="n">
-        <v>305.6923950228771</v>
+        <v>285.5483909203393</v>
       </c>
       <c r="M23" t="n">
-        <v>289.2648266065318</v>
+        <v>292.3921504924544</v>
       </c>
       <c r="N23" t="n">
         <v>212.7839583354218</v>
@@ -29077,25 +29077,25 @@
         <v>217.3592102577956</v>
       </c>
       <c r="P23" t="n">
-        <v>228.0274420688645</v>
+        <v>305.4287082454539</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.6035073537782</v>
+        <v>308.0047735303676</v>
       </c>
       <c r="R23" t="n">
         <v>239.3921512562441</v>
       </c>
       <c r="S23" t="n">
-        <v>305.6170776905319</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T23" t="n">
-        <v>300.0013909652262</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U23" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="C26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="D26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="E26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="F26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="G26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="H26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="I26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="J26" t="n">
-        <v>236.855166964496</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="M26" t="n">
-        <v>236.855166964496</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="O26" t="n">
-        <v>236.855166964496</v>
+        <v>103.0635169051798</v>
       </c>
       <c r="P26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="R26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="S26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="T26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
     </row>
     <row r="27">
@@ -29375,16 +29375,16 @@
         <v>107.9283390365971</v>
       </c>
       <c r="J27" t="n">
-        <v>78.23098561953093</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>170.3840697446077</v>
       </c>
       <c r="L27" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M27" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>107.9066134679088</v>
@@ -29393,10 +29393,10 @@
         <v>126.09543989585</v>
       </c>
       <c r="P27" t="n">
-        <v>159.7351325352408</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.963937997691364</v>
+        <v>79.28586330547648</v>
       </c>
       <c r="R27" t="n">
         <v>135.7385435371774</v>
@@ -29408,13 +29408,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29454,31 +29454,31 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J28" t="n">
-        <v>151.9326314605597</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K28" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L28" t="n">
         <v>34.19696075465806</v>
       </c>
       <c r="M28" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N28" t="n">
-        <v>236.855166964496</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O28" t="n">
         <v>39.42323441888101</v>
       </c>
       <c r="P28" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.3688647731046</v>
+        <v>211.3784519928943</v>
       </c>
       <c r="R28" t="n">
-        <v>204.0484816844984</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="S28" t="n">
         <v>235.6777742193615</v>
@@ -29487,13 +29487,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29533,19 +29533,19 @@
         <v>236.855166964496</v>
       </c>
       <c r="J29" t="n">
-        <v>79.38441504035356</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K29" t="n">
-        <v>10.62810875858561</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L29" t="n">
-        <v>236.855166964496</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>236.855166964496</v>
       </c>
       <c r="N29" t="n">
-        <v>236.855166964496</v>
+        <v>109.4696695743451</v>
       </c>
       <c r="O29" t="n">
         <v>236.855166964496</v>
@@ -29563,7 +29563,7 @@
         <v>236.855166964496</v>
       </c>
       <c r="T29" t="n">
-        <v>236.855166964496</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U29" t="n">
         <v>236.855166964496</v>
@@ -29591,13 +29591,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>200.4078829682196</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>206.5354104046325</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29609,10 +29609,10 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I30" t="n">
-        <v>107.9283390365971</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J30" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29624,13 +29624,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>32.96530502745547</v>
+        <v>60.29213605531158</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q30" t="n">
         <v>145.0940204505216</v>
@@ -29642,7 +29642,7 @@
         <v>191.8955649522593</v>
       </c>
       <c r="T30" t="n">
-        <v>236.855166964496</v>
+        <v>215.0370598435168</v>
       </c>
       <c r="U30" t="n">
         <v>236.855166964496</v>
@@ -29694,19 +29694,19 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K31" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L31" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M31" t="n">
         <v>27.37318353055668</v>
       </c>
       <c r="N31" t="n">
-        <v>18.62520307538163</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O31" t="n">
-        <v>236.855166964496</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P31" t="n">
         <v>60.14232658241831</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="C32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="D32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="F32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="G32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="H32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="I32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="J32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="M32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="N32" t="n">
-        <v>217.446165608258</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="P32" t="n">
-        <v>236.8551669644959</v>
+        <v>19.50187917374374</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.02339340615995</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="R32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="S32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="T32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>206.5354104046327</v>
+        <v>206.5354104046323</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29846,22 +29846,22 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I33" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J33" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L33" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>62.79861698781286</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O33" t="n">
         <v>126.09543989585</v>
@@ -29873,7 +29873,7 @@
         <v>8.963937997691364</v>
       </c>
       <c r="R33" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S33" t="n">
         <v>191.8955649522593</v>
@@ -29882,13 +29882,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U33" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V33" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W33" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29931,16 +29931,16 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K34" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L34" t="n">
-        <v>34.19696075465806</v>
+        <v>148.4047564794695</v>
       </c>
       <c r="M34" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N34" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="O34" t="n">
         <v>39.42323441888101</v>
@@ -29961,13 +29961,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U34" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V34" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W34" t="n">
-        <v>236.8551669644959</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -30004,40 +30004,40 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I35" t="n">
-        <v>242.1920463707887</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="K35" t="n">
-        <v>220.6743361047004</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M35" t="n">
-        <v>246.3480823857373</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="P35" t="n">
-        <v>244.2136467526556</v>
       </c>
       <c r="Q35" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="R35" t="n">
-        <v>196.8079111785515</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S35" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U35" t="n">
         <v>250.1529948269971</v>
@@ -30086,10 +30086,10 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J36" t="n">
-        <v>54.02537789568677</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>152.5638842253975</v>
       </c>
       <c r="L36" t="n">
         <v>125.3490926623394</v>
@@ -30104,13 +30104,13 @@
         <v>126.09543989585</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.9816734961439</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R36" t="n">
-        <v>135.7385435371774</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S36" t="n">
         <v>191.8955649522593</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>219.1860646815481</v>
       </c>
       <c r="G37" t="n">
         <v>168.7145309437669</v>
@@ -30165,31 +30165,31 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J37" t="n">
-        <v>143.0084423346753</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K37" t="n">
-        <v>68.62817916039604</v>
+        <v>112.312448565627</v>
       </c>
       <c r="L37" t="n">
         <v>34.19696075465806</v>
       </c>
       <c r="M37" t="n">
-        <v>177.20211312048</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N37" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O37" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P37" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R37" t="n">
-        <v>250.1529948269971</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S37" t="n">
         <v>235.6777742193615</v>
@@ -30244,16 +30244,16 @@
         <v>250.1529948269971</v>
       </c>
       <c r="J38" t="n">
-        <v>79.38441504035356</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K38" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M38" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>250.1529948269971</v>
@@ -30265,16 +30265,16 @@
         <v>250.1529948269971</v>
       </c>
       <c r="Q38" t="n">
-        <v>230.6035073537782</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="R38" t="n">
-        <v>196.8079111785515</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S38" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U38" t="n">
         <v>250.1529948269971</v>
@@ -30317,19 +30317,19 @@
         <v>148.761012594616</v>
       </c>
       <c r="H39" t="n">
-        <v>142.7816455270815</v>
+        <v>125.8939924814591</v>
       </c>
       <c r="I39" t="n">
-        <v>107.9283390365971</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J39" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K39" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.900935148123557</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>122.422560448506</v>
@@ -30338,13 +30338,13 @@
         <v>107.9066134679088</v>
       </c>
       <c r="O39" t="n">
-        <v>126.09543989585</v>
+        <v>58.00272679358899</v>
       </c>
       <c r="P39" t="n">
-        <v>125.0272939704079</v>
+        <v>141.9149470160303</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R39" t="n">
         <v>165.2365855749133</v>
@@ -30402,22 +30402,22 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J40" t="n">
-        <v>121.2121579575505</v>
+        <v>218.2236451552295</v>
       </c>
       <c r="K40" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L40" t="n">
         <v>34.19696075465806</v>
       </c>
       <c r="M40" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N40" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O40" t="n">
-        <v>225.3334166870744</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P40" t="n">
         <v>147.6265796099169</v>
@@ -30438,7 +30438,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W40" t="n">
         <v>250.1529948269971</v>
@@ -30481,7 +30481,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="J41" t="n">
-        <v>188.9590216718574</v>
+        <v>79.38441504035356</v>
       </c>
       <c r="K41" t="n">
         <v>250.1529948269971</v>
@@ -30493,13 +30493,13 @@
         <v>250.1529948269971</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O41" t="n">
-        <v>53.92009410248112</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>250.1529948269971</v>
+        <v>223.195029095982</v>
       </c>
       <c r="Q41" t="n">
         <v>250.1529948269971</v>
@@ -30508,10 +30508,10 @@
         <v>250.1529948269971</v>
       </c>
       <c r="S41" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U41" t="n">
         <v>250.1529948269971</v>
@@ -30557,13 +30557,13 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I42" t="n">
-        <v>131.3774762345024</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J42" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K42" t="n">
-        <v>72.11484824250083</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L42" t="n">
         <v>125.3490926623394</v>
@@ -30572,7 +30572,7 @@
         <v>122.422560448506</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9066134679088</v>
+        <v>124.7942665135311</v>
       </c>
       <c r="O42" t="n">
         <v>126.09543989585</v>
@@ -30633,31 +30633,31 @@
         <v>168.7145309437669</v>
       </c>
       <c r="H43" t="n">
-        <v>246.2058836109401</v>
+        <v>165.9467011478387</v>
       </c>
       <c r="I43" t="n">
-        <v>165.2666490039705</v>
+        <v>219.1931707977504</v>
       </c>
       <c r="J43" t="n">
-        <v>143.0084423346753</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K43" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L43" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M43" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N43" t="n">
         <v>18.62520307538163</v>
       </c>
       <c r="O43" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P43" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q43" t="n">
         <v>170.7111018018876</v>
@@ -30669,7 +30669,7 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T43" t="n">
-        <v>223.8203341576757</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U43" t="n">
         <v>250.1529948269971</v>
@@ -30727,28 +30727,28 @@
         <v>250.1529948269971</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="P44" t="n">
-        <v>19.50187917374374</v>
+        <v>71.62642813737112</v>
       </c>
       <c r="Q44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="R44" t="n">
-        <v>217.9994480899213</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S44" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U44" t="n">
         <v>250.1529948269971</v>
@@ -30797,19 +30797,19 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J45" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K45" t="n">
         <v>135.6762311797751</v>
       </c>
       <c r="L45" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>122.422560448506</v>
+        <v>139.3102134941284</v>
       </c>
       <c r="N45" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>126.09543989585</v>
@@ -30821,10 +30821,10 @@
         <v>145.0940204505216</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7385435371774</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S45" t="n">
-        <v>208.7832179978817</v>
+        <v>191.8955649522593</v>
       </c>
       <c r="T45" t="n">
         <v>215.0370598435168</v>
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>199.1091720444906</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30879,7 +30879,7 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K46" t="n">
-        <v>218.0573222148323</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L46" t="n">
         <v>139.4805673535853</v>
@@ -30894,10 +30894,10 @@
         <v>145.0742342239729</v>
       </c>
       <c r="P46" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R46" t="n">
         <v>204.0484816844984</v>
@@ -30906,7 +30906,7 @@
         <v>235.6777742193615</v>
       </c>
       <c r="T46" t="n">
-        <v>223.8203341576757</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U46" t="n">
         <v>250.1529948269971</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3760524526216878</v>
+        <v>0.3760524526216867</v>
       </c>
       <c r="H11" t="n">
-        <v>3.851247180411862</v>
+        <v>3.85124718041185</v>
       </c>
       <c r="I11" t="n">
-        <v>14.49776217969764</v>
+        <v>14.49776217969759</v>
       </c>
       <c r="J11" t="n">
-        <v>31.91698185070001</v>
+        <v>31.91698185069991</v>
       </c>
       <c r="K11" t="n">
-        <v>47.83528217017606</v>
+        <v>47.83528217017592</v>
       </c>
       <c r="L11" t="n">
-        <v>59.34389741709706</v>
+        <v>59.34389741709687</v>
       </c>
       <c r="M11" t="n">
-        <v>66.031520221408</v>
+        <v>66.03152022140779</v>
       </c>
       <c r="N11" t="n">
-        <v>67.09997925241937</v>
+        <v>67.09997925241916</v>
       </c>
       <c r="O11" t="n">
-        <v>63.36060767666246</v>
+        <v>63.36060767666226</v>
       </c>
       <c r="P11" t="n">
-        <v>54.07681275256454</v>
+        <v>54.07681275256436</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.60943429305033</v>
+        <v>40.60943429305019</v>
       </c>
       <c r="R11" t="n">
-        <v>23.62220487699712</v>
+        <v>23.62220487699705</v>
       </c>
       <c r="S11" t="n">
-        <v>8.569295264116722</v>
+        <v>8.569295264116693</v>
       </c>
       <c r="T11" t="n">
-        <v>1.646169611351439</v>
+        <v>1.646169611351434</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03008419620973503</v>
+        <v>0.03008419620973493</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2012058004758401</v>
+        <v>0.2012058004758394</v>
       </c>
       <c r="H12" t="n">
-        <v>1.943224441437719</v>
+        <v>1.943224441437712</v>
       </c>
       <c r="I12" t="n">
-        <v>6.927480411119932</v>
+        <v>6.92748041111991</v>
       </c>
       <c r="J12" t="n">
-        <v>19.00953573706171</v>
+        <v>19.00953573706165</v>
       </c>
       <c r="K12" t="n">
-        <v>32.49032436894299</v>
+        <v>32.49032436894289</v>
       </c>
       <c r="L12" t="n">
-        <v>43.68725066910729</v>
+        <v>43.68725066910715</v>
       </c>
       <c r="M12" t="n">
-        <v>50.98096093635648</v>
+        <v>50.98096093635632</v>
       </c>
       <c r="N12" t="n">
-        <v>52.33027527375806</v>
+        <v>52.3302752737579</v>
       </c>
       <c r="O12" t="n">
-        <v>47.87197832637234</v>
+        <v>47.87197832637219</v>
       </c>
       <c r="P12" t="n">
-        <v>38.42148307507511</v>
+        <v>38.42148307507498</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.68374393442478</v>
+        <v>25.68374393442469</v>
       </c>
       <c r="R12" t="n">
-        <v>12.49240926112278</v>
+        <v>12.49240926112273</v>
       </c>
       <c r="S12" t="n">
-        <v>3.737309495680623</v>
+        <v>3.737309495680611</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8110005729706006</v>
+        <v>0.811000572970598</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0132372237155158</v>
+        <v>0.01323722371551576</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1686841841780482</v>
+        <v>0.1686841841780477</v>
       </c>
       <c r="H13" t="n">
-        <v>1.499755746601193</v>
+        <v>1.499755746601189</v>
       </c>
       <c r="I13" t="n">
-        <v>5.072793466008942</v>
+        <v>5.072793466008926</v>
       </c>
       <c r="J13" t="n">
-        <v>11.92597182138801</v>
+        <v>11.92597182138797</v>
       </c>
       <c r="K13" t="n">
-        <v>19.59803521632232</v>
+        <v>19.59803521632226</v>
       </c>
       <c r="L13" t="n">
-        <v>25.07873770952546</v>
+        <v>25.07873770952538</v>
       </c>
       <c r="M13" t="n">
-        <v>26.44201261620077</v>
+        <v>26.44201261620069</v>
       </c>
       <c r="N13" t="n">
-        <v>25.8132806569917</v>
+        <v>25.81328065699162</v>
       </c>
       <c r="O13" t="n">
-        <v>23.8427426872754</v>
+        <v>23.84274268727533</v>
       </c>
       <c r="P13" t="n">
-        <v>20.4015853300432</v>
+        <v>20.40158533004314</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.12500018603638</v>
+        <v>14.12500018603634</v>
       </c>
       <c r="R13" t="n">
-        <v>7.584654317678421</v>
+        <v>7.584654317678396</v>
       </c>
       <c r="S13" t="n">
-        <v>2.939705282448348</v>
+        <v>2.939705282448339</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7207415142152968</v>
+        <v>0.7207415142152944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009200955500620823</v>
+        <v>0.009200955500620793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3760524526216867</v>
+        <v>0.3760524526216878</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85124718041185</v>
+        <v>3.851247180411862</v>
       </c>
       <c r="I14" t="n">
-        <v>14.49776217969759</v>
+        <v>14.49776217969764</v>
       </c>
       <c r="J14" t="n">
-        <v>31.91698185069991</v>
+        <v>31.91698185070001</v>
       </c>
       <c r="K14" t="n">
-        <v>47.83528217017592</v>
+        <v>47.83528217017606</v>
       </c>
       <c r="L14" t="n">
-        <v>59.34389741709687</v>
+        <v>59.34389741709706</v>
       </c>
       <c r="M14" t="n">
-        <v>66.03152022140779</v>
+        <v>66.031520221408</v>
       </c>
       <c r="N14" t="n">
-        <v>67.09997925241916</v>
+        <v>67.09997925241937</v>
       </c>
       <c r="O14" t="n">
-        <v>63.36060767666226</v>
+        <v>63.36060767666246</v>
       </c>
       <c r="P14" t="n">
-        <v>54.07681275256436</v>
+        <v>54.07681275256454</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.60943429305019</v>
+        <v>40.60943429305033</v>
       </c>
       <c r="R14" t="n">
-        <v>23.62220487699705</v>
+        <v>23.62220487699712</v>
       </c>
       <c r="S14" t="n">
-        <v>8.569295264116693</v>
+        <v>8.569295264116722</v>
       </c>
       <c r="T14" t="n">
-        <v>1.646169611351434</v>
+        <v>1.646169611351439</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03008419620973493</v>
+        <v>0.03008419620973503</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2012058004758394</v>
+        <v>0.2012058004758401</v>
       </c>
       <c r="H15" t="n">
-        <v>1.943224441437712</v>
+        <v>1.943224441437719</v>
       </c>
       <c r="I15" t="n">
-        <v>6.92748041111991</v>
+        <v>6.927480411119932</v>
       </c>
       <c r="J15" t="n">
-        <v>19.00953573706165</v>
+        <v>19.00953573706171</v>
       </c>
       <c r="K15" t="n">
-        <v>32.49032436894289</v>
+        <v>32.49032436894299</v>
       </c>
       <c r="L15" t="n">
-        <v>43.68725066910715</v>
+        <v>43.68725066910729</v>
       </c>
       <c r="M15" t="n">
-        <v>50.98096093635632</v>
+        <v>50.98096093635648</v>
       </c>
       <c r="N15" t="n">
-        <v>52.3302752737579</v>
+        <v>52.33027527375806</v>
       </c>
       <c r="O15" t="n">
-        <v>47.87197832637219</v>
+        <v>47.87197832637234</v>
       </c>
       <c r="P15" t="n">
-        <v>38.42148307507498</v>
+        <v>38.42148307507511</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.68374393442469</v>
+        <v>25.68374393442478</v>
       </c>
       <c r="R15" t="n">
-        <v>12.49240926112273</v>
+        <v>12.49240926112278</v>
       </c>
       <c r="S15" t="n">
-        <v>3.737309495680611</v>
+        <v>3.737309495680623</v>
       </c>
       <c r="T15" t="n">
-        <v>0.811000572970598</v>
+        <v>0.8110005729706006</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01323722371551576</v>
+        <v>0.0132372237155158</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1686841841780477</v>
+        <v>0.1686841841780482</v>
       </c>
       <c r="H16" t="n">
-        <v>1.499755746601189</v>
+        <v>1.499755746601193</v>
       </c>
       <c r="I16" t="n">
-        <v>5.072793466008926</v>
+        <v>5.072793466008942</v>
       </c>
       <c r="J16" t="n">
-        <v>11.92597182138797</v>
+        <v>11.92597182138801</v>
       </c>
       <c r="K16" t="n">
-        <v>19.59803521632226</v>
+        <v>19.59803521632232</v>
       </c>
       <c r="L16" t="n">
-        <v>25.07873770952538</v>
+        <v>25.07873770952546</v>
       </c>
       <c r="M16" t="n">
-        <v>26.44201261620069</v>
+        <v>26.44201261620077</v>
       </c>
       <c r="N16" t="n">
-        <v>25.81328065699162</v>
+        <v>25.8132806569917</v>
       </c>
       <c r="O16" t="n">
-        <v>23.84274268727533</v>
+        <v>23.8427426872754</v>
       </c>
       <c r="P16" t="n">
-        <v>20.40158533004314</v>
+        <v>20.4015853300432</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.12500018603634</v>
+        <v>14.12500018603638</v>
       </c>
       <c r="R16" t="n">
-        <v>7.584654317678396</v>
+        <v>7.584654317678421</v>
       </c>
       <c r="S16" t="n">
-        <v>2.939705282448339</v>
+        <v>2.939705282448348</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7207415142152944</v>
+        <v>0.7207415142152968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009200955500620793</v>
+        <v>0.009200955500620823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,19 +35416,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="N11" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="O11" t="n">
-        <v>40.77709507684827</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>40.77709507684796</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35437,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836062181357335</v>
+        <v>2.836062181357272</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>27.16630779553443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.49402539587345</v>
+        <v>27.1663077955349</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.63154814123672</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35568,19 +35568,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>42.49402539587345</v>
+        <v>32.2474009535551</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35595,7 +35595,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.615852812318286</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>11.37778787638485</v>
+        <v>30.33179242271875</v>
       </c>
       <c r="M14" t="n">
-        <v>42.49402539587345</v>
+        <v>10.44530265412921</v>
       </c>
       <c r="N14" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="O14" t="n">
-        <v>29.39930720046343</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35674,7 +35674,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.836062181357329</v>
+        <v>2.836062181357335</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.16630779553473</v>
       </c>
       <c r="L15" t="n">
-        <v>27.16630779553443</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="P15" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,25 +35808,25 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.564781512233862</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="N16" t="n">
-        <v>32.24740095355502</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.38770528549559</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.294914155825523</v>
       </c>
     </row>
     <row r="17">
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>40.77709507684796</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="N17" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="T17" t="n">
-        <v>23.76041486023339</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>40.77709507684796</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>42.49402539587315</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.77709507684827</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>77.40126617658959</v>
+        <v>57.25726207405174</v>
       </c>
       <c r="M23" t="n">
-        <v>74.2739422906668</v>
+        <v>77.40126617658943</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,25 +36373,25 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>77.40126617658943</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>77.40126617658943</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.40126617658959</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.40126617658959</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4707519241424</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>226.2270582059104</v>
+        <v>226.2270582059105</v>
       </c>
       <c r="L26" t="n">
-        <v>42.3533381824043</v>
+        <v>279.2085051469004</v>
       </c>
       <c r="M26" t="n">
-        <v>313.1490523519865</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N26" t="n">
-        <v>70.61684868354396</v>
+        <v>307.47201564804</v>
       </c>
       <c r="O26" t="n">
-        <v>266.2544741649594</v>
+        <v>132.4628241056433</v>
       </c>
       <c r="P26" t="n">
         <v>217.3532877907523</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.42453853937464</v>
+        <v>143.8317735583361</v>
       </c>
       <c r="R26" t="n">
-        <v>40.04725578594449</v>
+        <v>40.04725578594457</v>
       </c>
       <c r="S26" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553769</v>
       </c>
       <c r="T26" t="n">
-        <v>14.25504217585938</v>
+        <v>14.25504217585947</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>34.70783856483261</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>34.70783856483288</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.924189125884457</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>106.8920833739031</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>83.00958721978962</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>32.80668527999771</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>47.89614529263865</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>226.2270582059104</v>
       </c>
       <c r="L29" t="n">
-        <v>272.3688602766179</v>
+        <v>42.3533381824043</v>
       </c>
       <c r="M29" t="n">
-        <v>313.1490523519865</v>
+        <v>313.1490523519866</v>
       </c>
       <c r="N29" t="n">
-        <v>307.4720156480399</v>
+        <v>180.0865182578891</v>
       </c>
       <c r="O29" t="n">
         <v>266.2544741649594</v>
@@ -36850,16 +36850,16 @@
         <v>217.3532877907523</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.251659610717816</v>
+        <v>143.8317735583361</v>
       </c>
       <c r="R29" t="n">
-        <v>40.04725578594449</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553712</v>
       </c>
       <c r="T29" t="n">
-        <v>14.25504217585938</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36887,13 +36887,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>12.8897314438537</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>34.70783856483279</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>21.81810712097918</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>115.8162724997875</v>
       </c>
       <c r="O31" t="n">
-        <v>115.8162724997876</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>47.89614529263856</v>
+        <v>157.4707519241425</v>
       </c>
       <c r="K32" t="n">
-        <v>226.2270582059103</v>
+        <v>226.2270582059105</v>
       </c>
       <c r="L32" t="n">
-        <v>42.3533381824043</v>
+        <v>279.2085051469004</v>
       </c>
       <c r="M32" t="n">
-        <v>313.1490523519865</v>
+        <v>313.1490523519866</v>
       </c>
       <c r="N32" t="n">
-        <v>288.063014291802</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O32" t="n">
-        <v>266.2544741649594</v>
+        <v>266.2544741649595</v>
       </c>
       <c r="P32" t="n">
-        <v>217.3532877907522</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>109.9699151515742</v>
       </c>
       <c r="R32" t="n">
-        <v>21.60023534856551</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553627</v>
+        <v>8.639355450553769</v>
       </c>
       <c r="T32" t="n">
-        <v>14.25504217585932</v>
+        <v>14.25504217585947</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37130,7 +37130,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>34.70783856483305</v>
+        <v>34.70783856483261</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>8.924189125884109</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.8162724997878</v>
+        <v>106.8920833739032</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.960948456208344</v>
       </c>
       <c r="J35" t="n">
-        <v>170.7685797866436</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L35" t="n">
-        <v>42.3533381824043</v>
+        <v>151.762188733028</v>
       </c>
       <c r="M35" t="n">
-        <v>322.6419677732279</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N35" t="n">
-        <v>320.7698435105411</v>
+        <v>320.769843510541</v>
       </c>
       <c r="O35" t="n">
-        <v>279.5523020274606</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>121.8963132374665</v>
+        <v>230.6511156532533</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.54948747321897</v>
+        <v>19.54948747321888</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.76084357075294</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.93718331305475</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>27.55287003836045</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>16.88765304562242</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.88765304562233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>80.2591824631015</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>34.15466932060255</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.10451314249877</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.960948456208344</v>
+        <v>7.960948456208373</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K38" t="n">
-        <v>239.5248860684114</v>
+        <v>65.986957222836</v>
       </c>
       <c r="L38" t="n">
-        <v>42.3533381824043</v>
+        <v>292.5063330094014</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6419677732279</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N38" t="n">
         <v>320.769843510541</v>
       </c>
       <c r="O38" t="n">
-        <v>279.5523020274605</v>
+        <v>32.79378456920154</v>
       </c>
       <c r="P38" t="n">
-        <v>64.72854597270955</v>
+        <v>230.6511156532534</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19.54948747321891</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>10.76084357075297</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.93718331305478</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.55287003836048</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37613,7 +37613,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>16.88765304562239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>75.21520282055425</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>80.2591824631015</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>5.043979642547185</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>322.6419677732279</v>
       </c>
       <c r="N41" t="n">
-        <v>70.61684868354396</v>
+        <v>305.6980050878634</v>
       </c>
       <c r="O41" t="n">
-        <v>83.31940130294456</v>
+        <v>29.39930720046343</v>
       </c>
       <c r="P41" t="n">
-        <v>230.6511156532534</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>19.54948747321894</v>
@@ -37804,10 +37804,10 @@
         <v>10.760843570753</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>21.93718331305481</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>27.55287003836051</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>16.88765304562236</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.25918246310137</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>53.92652179377991</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>26.33266066932146</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38023,28 +38023,28 @@
         <v>292.5063330094014</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6419677732279</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>70.61684868354396</v>
+        <v>320.7698435105411</v>
       </c>
       <c r="O44" t="n">
-        <v>32.79378456920157</v>
+        <v>114.0763078007426</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>52.12454896362738</v>
       </c>
       <c r="Q44" t="n">
-        <v>140.7184836443247</v>
+        <v>19.54948747321894</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10.760843570753</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>21.93718331305481</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>27.55287003836051</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>16.88765304562236</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>16.88765304562236</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>53.92652179377991</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>80.25918246310137</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>26.33266066932146</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
